--- a/data/availability.xlsx
+++ b/data/availability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcdermott/code/github/appt-scheduling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8628B82B-2910-4847-AE29-927BEDAE3EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC94EAE-8406-0C4D-8EB3-0B8BD29A2600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="760" windowWidth="27640" windowHeight="16940" xr2:uid="{94FC90EC-69F7-D84B-8B83-2419A711D246}"/>
+    <workbookView xWindow="2600" yWindow="760" windowWidth="27640" windowHeight="16940" xr2:uid="{94FC90EC-69F7-D84B-8B83-2419A711D246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -91,7 +94,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,12 +412,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/availability.xlsx
+++ b/data/availability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcdermott/code/github/appt-scheduling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC94EAE-8406-0C4D-8EB3-0B8BD29A2600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508CFAA8-FA4E-BF42-AA89-DFB02A87DC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="760" windowWidth="27640" windowHeight="16940" xr2:uid="{94FC90EC-69F7-D84B-8B83-2419A711D246}"/>
+    <workbookView xWindow="14600" yWindow="920" windowWidth="27640" windowHeight="16940" xr2:uid="{94FC90EC-69F7-D84B-8B83-2419A711D246}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
